--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Efna3-Epha4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Efna3-Epha4.xlsx
@@ -79,7 +79,7 @@
     <t>ECs</t>
   </si>
   <si>
-    <t>Neutrophils</t>
+    <t>MuSCs</t>
   </si>
   <si>
     <t>Efna3</t>
@@ -91,7 +91,7 @@
     <t>FAPs</t>
   </si>
   <si>
-    <t>MuSCs</t>
+    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -540,16 +540,16 @@
         <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.22756</v>
+        <v>0.1806205</v>
       </c>
       <c r="H2">
-        <v>0.45512</v>
+        <v>0.361241</v>
       </c>
       <c r="I2">
-        <v>0.8582128485531142</v>
+        <v>0.7284509268949775</v>
       </c>
       <c r="J2">
-        <v>0.8013988205815389</v>
+        <v>0.7284509268949775</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.4223555</v>
+        <v>6.9192795</v>
       </c>
       <c r="N2">
-        <v>20.844711</v>
+        <v>13.838559</v>
       </c>
       <c r="O2">
-        <v>0.5134583541362048</v>
+        <v>0.6281451873364243</v>
       </c>
       <c r="P2">
-        <v>0.4269921487868165</v>
+        <v>0.5718408792853329</v>
       </c>
       <c r="Q2">
-        <v>2.37171121758</v>
+        <v>1.24976372292975</v>
       </c>
       <c r="R2">
-        <v>9.486844870319999</v>
+        <v>4.999054891719</v>
       </c>
       <c r="S2">
-        <v>0.440656556716626</v>
+        <v>0.4575729439398376</v>
       </c>
       <c r="T2">
-        <v>0.3421910044353317</v>
+        <v>0.4165580185518397</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.22756</v>
+        <v>0.1806205</v>
       </c>
       <c r="H3">
-        <v>0.45512</v>
+        <v>0.361241</v>
       </c>
       <c r="I3">
-        <v>0.8582128485531142</v>
+        <v>0.7284509268949775</v>
       </c>
       <c r="J3">
-        <v>0.8013988205815389</v>
+        <v>0.7284509268949775</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>6.248004</v>
       </c>
       <c r="O3">
-        <v>0.1026028409309336</v>
+        <v>0.1890685122662809</v>
       </c>
       <c r="P3">
-        <v>0.1279868381762944</v>
+        <v>0.2581818021036928</v>
       </c>
       <c r="Q3">
-        <v>0.47393193008</v>
+        <v>0.376172535494</v>
       </c>
       <c r="R3">
-        <v>2.84359158048</v>
+        <v>2.257035212964</v>
       </c>
       <c r="S3">
-        <v>0.0880550763849786</v>
+        <v>0.1377271330070268</v>
       </c>
       <c r="T3">
-        <v>0.1025685011644426</v>
+        <v>0.1880727730498507</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.22756</v>
+        <v>0.1806205</v>
       </c>
       <c r="H4">
-        <v>0.45512</v>
+        <v>0.361241</v>
       </c>
       <c r="I4">
-        <v>0.8582128485531142</v>
+        <v>0.7284509268949775</v>
       </c>
       <c r="J4">
-        <v>0.8013988205815389</v>
+        <v>0.7284509268949775</v>
       </c>
       <c r="K4">
         <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.6551325</v>
+        <v>0.07724199999999999</v>
       </c>
       <c r="N4">
-        <v>3.310265</v>
+        <v>0.231726</v>
       </c>
       <c r="O4">
-        <v>0.0815402630746324</v>
+        <v>0.007012173819577614</v>
       </c>
       <c r="P4">
-        <v>0.0678089115941109</v>
+        <v>0.009575447818900294</v>
       </c>
       <c r="Q4">
-        <v>0.3766419517</v>
+        <v>0.013951488661</v>
       </c>
       <c r="R4">
-        <v>1.5065678068</v>
+        <v>0.08370893196599999</v>
       </c>
       <c r="S4">
-        <v>0.06997890144505059</v>
+        <v>0.005108024518420008</v>
       </c>
       <c r="T4">
-        <v>0.05434198177643831</v>
+        <v>0.00697524383911241</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,46 +726,46 @@
         <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.22756</v>
+        <v>0.1806205</v>
       </c>
       <c r="H5">
-        <v>0.45512</v>
+        <v>0.361241</v>
       </c>
       <c r="I5">
-        <v>0.8582128485531142</v>
+        <v>0.7284509268949775</v>
       </c>
       <c r="J5">
-        <v>0.8013988205815389</v>
+        <v>0.7284509268949775</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.111548333333334</v>
+        <v>1.9269465</v>
       </c>
       <c r="N5">
-        <v>18.334645</v>
+        <v>3.853893</v>
       </c>
       <c r="O5">
-        <v>0.3010860211453351</v>
+        <v>0.1749318220531151</v>
       </c>
       <c r="P5">
-        <v>0.3755748624096281</v>
+        <v>0.1592516649884999</v>
       </c>
       <c r="Q5">
-        <v>1.390743938733333</v>
+        <v>0.34804604030325</v>
       </c>
       <c r="R5">
-        <v>8.3444636324</v>
+        <v>1.392184161213</v>
       </c>
       <c r="S5">
-        <v>0.2583958918666612</v>
+        <v>0.127429247918019</v>
       </c>
       <c r="T5">
-        <v>0.3009852517751497</v>
+        <v>0.1160070229704411</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.22756</v>
+        <v>0.1806205</v>
       </c>
       <c r="H6">
-        <v>0.45512</v>
+        <v>0.361241</v>
       </c>
       <c r="I6">
-        <v>0.8582128485531142</v>
+        <v>0.7284509268949775</v>
       </c>
       <c r="J6">
-        <v>0.8013988205815389</v>
+        <v>0.7284509268949775</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,28 +806,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.026642</v>
+        <v>0.009278333333333333</v>
       </c>
       <c r="N6">
-        <v>0.079926</v>
+        <v>0.027835</v>
       </c>
       <c r="O6">
-        <v>0.001312520712894198</v>
+        <v>0.0008423045246020856</v>
       </c>
       <c r="P6">
-        <v>0.001637239033150188</v>
+        <v>0.001150205803574436</v>
       </c>
       <c r="Q6">
-        <v>0.006062653519999999</v>
+        <v>0.001675857205833333</v>
       </c>
       <c r="R6">
-        <v>0.03637592111999999</v>
+        <v>0.010055143235</v>
       </c>
       <c r="S6">
-        <v>0.001126422139797894</v>
+        <v>0.0006135775116742227</v>
       </c>
       <c r="T6">
-        <v>0.00131208143017662</v>
+        <v>0.00083786848373378</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,19 +847,19 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.03759566666666666</v>
+        <v>0.067331</v>
       </c>
       <c r="H7">
-        <v>0.112787</v>
+        <v>0.134662</v>
       </c>
       <c r="I7">
-        <v>0.1417871514468859</v>
+        <v>0.2715490731050226</v>
       </c>
       <c r="J7">
-        <v>0.1986011794184611</v>
+        <v>0.2715490731050226</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.4223555</v>
+        <v>6.9192795</v>
       </c>
       <c r="N7">
-        <v>20.844711</v>
+        <v>13.838559</v>
       </c>
       <c r="O7">
-        <v>0.5134583541362048</v>
+        <v>0.6281451873364243</v>
       </c>
       <c r="P7">
-        <v>0.4269921487868165</v>
+        <v>0.5718408792853329</v>
       </c>
       <c r="Q7">
-        <v>0.3918354032594999</v>
+        <v>0.4658820080145</v>
       </c>
       <c r="R7">
-        <v>2.351012419557</v>
+        <v>1.863528032058</v>
       </c>
       <c r="S7">
-        <v>0.07280179741957885</v>
+        <v>0.1705722433965868</v>
       </c>
       <c r="T7">
-        <v>0.08480114435148478</v>
+        <v>0.1552828607334933</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,19 +909,19 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G8">
-        <v>0.03759566666666666</v>
+        <v>0.067331</v>
       </c>
       <c r="H8">
-        <v>0.112787</v>
+        <v>0.134662</v>
       </c>
       <c r="I8">
-        <v>0.1417871514468859</v>
+        <v>0.2715490731050226</v>
       </c>
       <c r="J8">
-        <v>0.1986011794184611</v>
+        <v>0.2715490731050226</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>6.248004</v>
       </c>
       <c r="O8">
-        <v>0.1026028409309336</v>
+        <v>0.1890685122662809</v>
       </c>
       <c r="P8">
-        <v>0.1279868381762944</v>
+        <v>0.2581818021036928</v>
       </c>
       <c r="Q8">
-        <v>0.07829929190533332</v>
+        <v>0.140228119108</v>
       </c>
       <c r="R8">
-        <v>0.7046936271479999</v>
+        <v>0.841368714648</v>
       </c>
       <c r="S8">
-        <v>0.01454776454595503</v>
+        <v>0.05134137925925418</v>
       </c>
       <c r="T8">
-        <v>0.0254183370118518</v>
+        <v>0.07010902905384214</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,49 +971,49 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G9">
-        <v>0.03759566666666666</v>
+        <v>0.067331</v>
       </c>
       <c r="H9">
-        <v>0.112787</v>
+        <v>0.134662</v>
       </c>
       <c r="I9">
-        <v>0.1417871514468859</v>
+        <v>0.2715490731050226</v>
       </c>
       <c r="J9">
-        <v>0.1986011794184611</v>
+        <v>0.2715490731050226</v>
       </c>
       <c r="K9">
         <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>1.6551325</v>
+        <v>0.07724199999999999</v>
       </c>
       <c r="N9">
-        <v>3.310265</v>
+        <v>0.231726</v>
       </c>
       <c r="O9">
-        <v>0.0815402630746324</v>
+        <v>0.007012173819577614</v>
       </c>
       <c r="P9">
-        <v>0.0678089115941109</v>
+        <v>0.009575447818900294</v>
       </c>
       <c r="Q9">
-        <v>0.06222580975916666</v>
+        <v>0.005200781101999999</v>
       </c>
       <c r="R9">
-        <v>0.373354858555</v>
+        <v>0.031204686612</v>
       </c>
       <c r="S9">
-        <v>0.01156136162958182</v>
+        <v>0.001904149301157607</v>
       </c>
       <c r="T9">
-        <v>0.01346692981767259</v>
+        <v>0.002600203979787885</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,49 +1033,49 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G10">
-        <v>0.03759566666666666</v>
+        <v>0.067331</v>
       </c>
       <c r="H10">
-        <v>0.112787</v>
+        <v>0.134662</v>
       </c>
       <c r="I10">
-        <v>0.1417871514468859</v>
+        <v>0.2715490731050226</v>
       </c>
       <c r="J10">
-        <v>0.1986011794184611</v>
+        <v>0.2715490731050226</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.111548333333334</v>
+        <v>1.9269465</v>
       </c>
       <c r="N10">
-        <v>18.334645</v>
+        <v>3.853893</v>
       </c>
       <c r="O10">
-        <v>0.3010860211453351</v>
+        <v>0.1749318220531151</v>
       </c>
       <c r="P10">
-        <v>0.3755748624096281</v>
+        <v>0.1592516649884999</v>
       </c>
       <c r="Q10">
-        <v>0.2297677339572222</v>
+        <v>0.1297432347915</v>
       </c>
       <c r="R10">
-        <v>2.067909605615</v>
+        <v>0.5189729391660001</v>
       </c>
       <c r="S10">
-        <v>0.04269012927867392</v>
+        <v>0.04750257413509616</v>
       </c>
       <c r="T10">
-        <v>0.07458961063447839</v>
+        <v>0.04324464201805871</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,19 +1095,19 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G11">
-        <v>0.03759566666666666</v>
+        <v>0.067331</v>
       </c>
       <c r="H11">
-        <v>0.112787</v>
+        <v>0.134662</v>
       </c>
       <c r="I11">
-        <v>0.1417871514468859</v>
+        <v>0.2715490731050226</v>
       </c>
       <c r="J11">
-        <v>0.1986011794184611</v>
+        <v>0.2715490731050226</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1116,28 +1116,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.026642</v>
+        <v>0.009278333333333333</v>
       </c>
       <c r="N11">
-        <v>0.079926</v>
+        <v>0.027835</v>
       </c>
       <c r="O11">
-        <v>0.001312520712894198</v>
+        <v>0.0008423045246020856</v>
       </c>
       <c r="P11">
-        <v>0.001637239033150188</v>
+        <v>0.001150205803574436</v>
       </c>
       <c r="Q11">
-        <v>0.001001623751333333</v>
+        <v>0.0006247194616666666</v>
       </c>
       <c r="R11">
-        <v>0.009014613761999999</v>
+        <v>0.00374831677</v>
       </c>
       <c r="S11">
-        <v>0.0001860985730963043</v>
+        <v>0.000228727012927863</v>
       </c>
       <c r="T11">
-        <v>0.0003251576029735683</v>
+        <v>0.0003123373198406556</v>
       </c>
     </row>
   </sheetData>
